--- a/FinalProject/FinalProject/Project Outputs for FinalProject/FinalProject.xlsx
+++ b/FinalProject/FinalProject/Project Outputs for FinalProject/FinalProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_kode\PCB_design\FinalProject\FinalProject\Project Outputs for FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E991AB8-0A42-4FE3-8E4A-A45877B321A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50E264E9-4B32-4381-936A-E8370D4351A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" xr2:uid="{F336F1D6-5958-4E95-B0BA-348C351E209F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" xr2:uid="{8F284D24-E404-454C-B203-E5034F1A8540}"/>
   </bookViews>
   <sheets>
     <sheet name="FinalProject" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="168">
   <si>
     <t>Line #</t>
   </si>
@@ -938,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF90A4AE-4425-4207-8006-A077B747D75D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE0490B-8928-44BB-B1FC-131ADA219624}">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="1">
-        <v>0.17892</v>
+        <v>0.1779</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="1">
-        <v>2.8969999999999999E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1082,11 +1082,13 @@
         <v>25</v>
       </c>
       <c r="J4" s="1">
-        <v>0.68159999999999998</v>
+        <v>0.67771000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1114,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1144,11 +1146,13 @@
         <v>32</v>
       </c>
       <c r="J6" s="1">
-        <v>0.23003999999999999</v>
+        <v>0.22872999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>7.2849999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1206,11 +1210,13 @@
         <v>38</v>
       </c>
       <c r="J8" s="1">
-        <v>0.40895999999999999</v>
+        <v>0.40662999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1236,11 +1242,13 @@
         <v>41</v>
       </c>
       <c r="J9" s="1">
-        <v>0.13632</v>
+        <v>0.13553999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="1">
-        <v>9.3719999999999998E-2</v>
+        <v>7.8939999999999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1298,7 +1306,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="1">
-        <v>9.3719999999999998E-2</v>
+        <v>7.8939999999999996E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1330,11 +1338,13 @@
         <v>49</v>
       </c>
       <c r="J12" s="1">
-        <v>0.63900000000000001</v>
+        <v>0.63534999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>52</v>
       </c>
       <c r="J13" s="1">
-        <v>9.3719999999999998E-2</v>
+        <v>9.3189999999999995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1396,7 +1406,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
@@ -1422,11 +1434,13 @@
         <v>63</v>
       </c>
       <c r="J15" s="1">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -1452,11 +1466,13 @@
         <v>69</v>
       </c>
       <c r="J16" s="1">
-        <v>0.54527999999999999</v>
+        <v>0.54217000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
@@ -1482,11 +1498,13 @@
         <v>74</v>
       </c>
       <c r="J17" s="1">
-        <v>0.40895999999999999</v>
+        <v>0.40662999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1516,7 +1534,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
@@ -1574,7 +1594,7 @@
         <v>87</v>
       </c>
       <c r="J20" s="1">
-        <v>1.022E-2</v>
+        <v>1.017E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1606,11 +1626,13 @@
         <v>90</v>
       </c>
       <c r="J21" s="1">
-        <v>2.1299999999999999E-2</v>
+        <v>2.1180000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1636,11 +1658,13 @@
         <v>93</v>
       </c>
       <c r="J22" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
@@ -1666,7 +1690,7 @@
         <v>96</v>
       </c>
       <c r="J23" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1698,11 +1722,13 @@
         <v>99</v>
       </c>
       <c r="J24" s="1">
-        <v>0.23855999999999999</v>
+        <v>0.23719999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
@@ -1728,11 +1754,13 @@
         <v>102</v>
       </c>
       <c r="J25" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>103</v>
       </c>
@@ -1758,11 +1786,13 @@
         <v>106</v>
       </c>
       <c r="J26" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1788,11 +1818,13 @@
         <v>109</v>
       </c>
       <c r="J27" s="1">
-        <v>0.11076</v>
+        <v>0.11013000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
@@ -1818,11 +1850,13 @@
         <v>112</v>
       </c>
       <c r="J28" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>103</v>
       </c>
@@ -1848,11 +1882,13 @@
         <v>115</v>
       </c>
       <c r="J29" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>103</v>
       </c>
@@ -1878,11 +1914,13 @@
         <v>118</v>
       </c>
       <c r="J30" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
@@ -1908,11 +1946,13 @@
         <v>121</v>
       </c>
       <c r="J31" s="1">
-        <v>8.5199999999999998E-2</v>
+        <v>8.4709999999999994E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>122</v>
       </c>
@@ -1938,7 +1978,7 @@
         <v>126</v>
       </c>
       <c r="J32" s="1">
-        <v>0.82645000000000002</v>
+        <v>0.82172000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1970,11 +2010,13 @@
         <v>132</v>
       </c>
       <c r="J33" s="1">
-        <v>0.59640000000000004</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>133</v>
       </c>
@@ -2000,11 +2042,13 @@
         <v>137</v>
       </c>
       <c r="J34" s="1">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>138</v>
       </c>
@@ -2030,11 +2074,13 @@
         <v>142</v>
       </c>
       <c r="J35" s="1">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>143</v>
       </c>
@@ -2060,11 +2106,13 @@
         <v>148</v>
       </c>
       <c r="J36" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>149</v>
       </c>
@@ -2090,11 +2138,13 @@
         <v>152</v>
       </c>
       <c r="J37" s="1">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>153</v>
       </c>
@@ -2120,11 +2170,13 @@
         <v>157</v>
       </c>
       <c r="J38" s="1">
-        <v>5.38</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>158</v>
       </c>
@@ -2154,7 +2206,9 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>163</v>
       </c>
